--- a/biology/Médecine/Sida_au_Bénin/Sida_au_Bénin.xlsx
+++ b/biology/Médecine/Sida_au_Bénin/Sida_au_Bénin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sida_au_B%C3%A9nin</t>
+          <t>Sida_au_Bénin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le sida constitue un problème de santé majeur au Bénin avec une prévalence qui tend à se stabiliser autour de 1,2 % depuis 2006 conformément aux résultats de l’Enquête Démographique et de Santé réalisée en 2012[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sida constitue un problème de santé majeur au Bénin avec une prévalence qui tend à se stabiliser autour de 1,2 % depuis 2006 conformément aux résultats de l’Enquête Démographique et de Santé réalisée en 2012.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sida_au_B%C3%A9nin</t>
+          <t>Sida_au_Bénin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Prévalence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La prévalence du VIH Sida est en fonction de plusieurs facteurs. Elle est de 1,4% chez les femmes et 1,0% chez les hommes mais faible parmi les vivants en milieu rural. Par rapport aux jeunes de 15-24 ans la prévalence est de 0,6 % et 1,5% dans les autres villes surtout chez les jeunes hommes vivant[2]. Durant l’Enquête Démographique et de Santé du
-Bénin (EDSB-IV) de 2011-2012, il est constaté que 1,2 % des personnes de 15-49 ans sont infectées par le VIH. Selon le niveau d'instruction , elle est faible chez les femmes instruites (second cycle ou plus) et chez les hommes sans instruction. Du point de vue statut matrimonial , la prévalence est plus élevée parmi les veuves (10,8 %) et les divorcés (2,1 %) mais plus faibles chez les femmes célibataires (0,7 %) et hommes divorcés (&lt;0,1 %). Elle est de 2,2 % , 2,1 % respectivement dans le Couffo et dans le Mono[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La prévalence du VIH Sida est en fonction de plusieurs facteurs. Elle est de 1,4% chez les femmes et 1,0% chez les hommes mais faible parmi les vivants en milieu rural. Par rapport aux jeunes de 15-24 ans la prévalence est de 0,6 % et 1,5% dans les autres villes surtout chez les jeunes hommes vivant. Durant l’Enquête Démographique et de Santé du
+Bénin (EDSB-IV) de 2011-2012, il est constaté que 1,2 % des personnes de 15-49 ans sont infectées par le VIH. Selon le niveau d'instruction , elle est faible chez les femmes instruites (second cycle ou plus) et chez les hommes sans instruction. Du point de vue statut matrimonial , la prévalence est plus élevée parmi les veuves (10,8 %) et les divorcés (2,1 %) mais plus faibles chez les femmes célibataires (0,7 %) et hommes divorcés (&lt;0,1 %). Elle est de 2,2 % , 2,1 % respectivement dans le Couffo et dans le Mono. 
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sida_au_B%C3%A9nin</t>
+          <t>Sida_au_Bénin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,13 +557,15 @@
           <t>Lutte contre la maladie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour lutter contre le SIDA au Bénin plusieurs dispositions ont été prises telle que :
--La journée mondiale de la lutte contre le VIH/SIDA tous les 1er décembre établie en 1988 par l'Organisation Mondiale de la Santé (OMS) et approuvée par l'Assemblée Générale des Nations unies[3],[4],
--Les dispositions prises par l'UNICEF pour lutter contre la transmission du VIH/SIDA de mère à enfant[5],
+-La journée mondiale de la lutte contre le VIH/SIDA tous les 1er décembre établie en 1988 par l'Organisation Mondiale de la Santé (OMS) et approuvée par l'Assemblée Générale des Nations unies
+-Les dispositions prises par l'UNICEF pour lutter contre la transmission du VIH/SIDA de mère à enfant,
 -La distribution des préservatifs dans les établissements et collèges par les ONG et autre Organisation,
--L'organisation des séances de campagnes de sensibilisation des jeunes, des enfants et des femmes sur le VIH/SIDA[6]
+-L'organisation des séances de campagnes de sensibilisation des jeunes, des enfants et des femmes sur le VIH/SIDA
 </t>
         </is>
       </c>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sida_au_B%C3%A9nin</t>
+          <t>Sida_au_Bénin</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,6 +595,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
